--- a/data/echoMRI/Kotz07172025.xlsx
+++ b/data/echoMRI/Kotz07172025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18A7BE0-84FF-7048-9483-615B88FB08B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124EBEB3-DDED-814B-8FA2-BC7660D9BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
